--- a/ROBERT_HOLLAND.xlsx
+++ b/ROBERT_HOLLAND.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t xml:space="preserve">Delivery</t>
   </si>
@@ -47,6 +47,9 @@
     <t xml:space="preserve">Breed</t>
   </si>
   <si>
+    <t xml:space="preserve">3bMonday</t>
+  </si>
+  <si>
     <t xml:space="preserve">2bMonday</t>
   </si>
   <si>
@@ -92,106 +95,106 @@
     <t xml:space="preserve">Comments</t>
   </si>
   <si>
+    <t xml:space="preserve">THS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARWICK SOW FARM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SR 1301 1431 BOWDENS RD, WARSAW, NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP-East Commercial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOLLAND, ROBERT G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPG240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16597222222222222</t>
+  </si>
+  <si>
     <t xml:space="preserve">MWF</t>
   </si>
   <si>
     <t xml:space="preserve">Weekly</t>
   </si>
   <si>
-    <t xml:space="preserve">Farm 34251 Farrowing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">252-224-0313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">441A BLACK SWAMP TRAIL, POLLOCKSVILLE, NC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHP-North</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOLLAND, ROBERT G.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">910-290-2335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PICL02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4236111111111111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farm 35051 Farrowing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">252-522-2123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NC 41 W, 244 TONYA LN, TRENTON, NC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPG240</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:46:AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farm 35071 Farrowing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">252-522-5987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">649-A BURNEY TOWN RD, KINSTON, NC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.29166666666666669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farm 35081 Farrowing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">252-522-5999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">649-B BURNEY TOWN RD, KINSTON, NC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.29583333333333334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farm 35091 Farrowing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SR 1130, 446 ASHLEE NICOL TRAIL, KINSTON, NC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.30902777777777779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farm 37061 Farrowing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">252-448-1199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">359 TONYA TRAIL, TRENTON, NC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:41: AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farm 37221 Farrowing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">252-527-1312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SR 1130, 2568 PLEASANT HILL RD, KINSTON, NC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.30277777777777776</t>
+    <t xml:space="preserve">Farm 31111 Farrowing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">910-293-3377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SR 1901, 1370 JUNIOUS RD, FAISON, NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17222222222222225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm 35101/BOC 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SR 1900, 2171 BREWER RD, FAISON, NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3444444444444445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm 36201 Farrowing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SR 1105, 226 JOHNNY B TANN LN, FAISON, NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FARM 67011/SOW 1 FARROWING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">910-594-2229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2525 BIG FARM LANE, FAISON, NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17500000000000002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FARM 67021/SOW 2 FARROWING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">320 BIG FARM LN, FAISON, NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16944444444444443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOG CITY SOW FARM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROSEWOOD SWINE SOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">252-448-3841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2115 NC HWY 41 E, TRENTON, NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35833333333333334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLAYHILL SOW FARM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.28333333333333333</t>
   </si>
 </sst>
 </file>
@@ -528,34 +531,35 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="8.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="10.71" hidden="0" customWidth="1"/>
     <col min="3" max="3" width="14.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="20.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="26.71" hidden="0" customWidth="1"/>
     <col min="5" max="5" width="17.71" hidden="0" customWidth="1"/>
     <col min="6" max="6" width="12.71" hidden="0" customWidth="1"/>
-    <col min="7" max="7" width="44.71" hidden="0" customWidth="1"/>
-    <col min="8" max="8" width="12.71" hidden="0" customWidth="1"/>
-    <col min="9" max="9" width="18.71" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="41.71" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="18.71" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="17.71" hidden="0" customWidth="1"/>
     <col min="10" max="10" width="16.71" hidden="0" customWidth="1"/>
     <col min="11" max="11" width="6.71" hidden="0" customWidth="1"/>
     <col min="12" max="12" width="8.71" hidden="0" customWidth="1"/>
-    <col min="13" max="13" width="9.71" hidden="0" customWidth="1"/>
+    <col min="13" max="13" width="8.71" hidden="0" customWidth="1"/>
     <col min="14" max="14" width="9.71" hidden="0" customWidth="1"/>
-    <col min="15" max="15" width="11.71" hidden="0" customWidth="1"/>
+    <col min="15" max="15" width="9.71" hidden="0" customWidth="1"/>
     <col min="16" max="16" width="11.71" hidden="0" customWidth="1"/>
-    <col min="17" max="17" width="10.71" hidden="0" customWidth="1"/>
+    <col min="17" max="17" width="11.71" hidden="0" customWidth="1"/>
     <col min="18" max="18" width="10.71" hidden="0" customWidth="1"/>
-    <col min="19" max="19" width="8.71" hidden="0" customWidth="1"/>
+    <col min="19" max="19" width="10.71" hidden="0" customWidth="1"/>
     <col min="20" max="20" width="8.71" hidden="0" customWidth="1"/>
-    <col min="21" max="21" width="10.71" hidden="0" customWidth="1"/>
+    <col min="21" max="21" width="8.71" hidden="0" customWidth="1"/>
     <col min="22" max="22" width="10.71" hidden="0" customWidth="1"/>
-    <col min="23" max="23" width="5.71" hidden="0" customWidth="1"/>
-    <col min="24" max="24" width="11.71" hidden="0" customWidth="1"/>
-    <col min="25" max="25" width="19.71" hidden="0" customWidth="1"/>
-    <col min="26" max="26" width="8.71" hidden="0" customWidth="1"/>
+    <col min="23" max="23" width="10.71" hidden="0" customWidth="1"/>
+    <col min="24" max="24" width="5.71" hidden="0" customWidth="1"/>
+    <col min="25" max="25" width="11.71" hidden="0" customWidth="1"/>
+    <col min="26" max="26" width="19.71" hidden="0" customWidth="1"/>
+    <col min="27" max="27" width="8.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -637,26 +641,27 @@
       <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="n">
-        <v>7069</v>
+        <v>7092</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" t="n">
-        <v>34251</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
+        <v>3889</v>
+      </c>
+      <c r="F2"/>
       <c r="G2" t="s">
         <v>30</v>
       </c>
@@ -666,61 +671,58 @@
       <c r="I2" t="s">
         <v>32</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2"/>
+      <c r="K2" t="s">
         <v>33</v>
       </c>
-      <c r="K2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" t="n">
-        <v>140</v>
-      </c>
+      <c r="L2"/>
       <c r="M2"/>
       <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2" t="n">
-        <v>22</v>
-      </c>
+      <c r="O2" t="n">
+        <v>70</v>
+      </c>
+      <c r="P2"/>
       <c r="Q2"/>
       <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2" t="n">
-        <v>40</v>
-      </c>
+      <c r="S2" t="n">
+        <v>560</v>
+      </c>
+      <c r="T2"/>
       <c r="U2"/>
       <c r="V2"/>
       <c r="W2" t="n">
-        <v>202</v>
+        <v>560</v>
       </c>
       <c r="X2" t="n">
-        <v>2.06122448979592</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z2"/>
+        <v>1190</v>
+      </c>
+      <c r="Y2"/>
+      <c r="Z2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B3" t="n">
         <v>7092</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" t="n">
-        <v>35051</v>
+        <v>31111</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H3" t="s">
         <v>31</v>
@@ -728,61 +730,58 @@
       <c r="I3" t="s">
         <v>32</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3"/>
+      <c r="K3" t="s">
         <v>33</v>
       </c>
-      <c r="K3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" t="n">
-        <v>160</v>
-      </c>
-      <c r="M3"/>
+      <c r="L3"/>
+      <c r="M3" t="n">
+        <v>100</v>
+      </c>
       <c r="N3"/>
       <c r="O3"/>
-      <c r="P3" t="n">
-        <v>110</v>
-      </c>
-      <c r="Q3"/>
+      <c r="P3"/>
+      <c r="Q3" t="n">
+        <v>86</v>
+      </c>
       <c r="R3"/>
       <c r="S3"/>
-      <c r="T3" t="n">
-        <v>160</v>
-      </c>
-      <c r="U3"/>
+      <c r="T3"/>
+      <c r="U3" t="n">
+        <v>52</v>
+      </c>
       <c r="V3"/>
-      <c r="W3" t="n">
-        <v>430</v>
-      </c>
+      <c r="W3"/>
       <c r="X3" t="n">
-        <v>2.1608040201005</v>
-      </c>
-      <c r="Y3" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>2.125</v>
+      </c>
+      <c r="Z3" t="s">
         <v>40</v>
       </c>
-      <c r="Z3"/>
+      <c r="AA3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B4" t="n">
-        <v>7094</v>
+        <v>7092</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
         <v>41</v>
       </c>
       <c r="E4" t="n">
-        <v>35071</v>
-      </c>
-      <c r="F4" t="s">
+        <v>35101</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4" t="s">
         <v>42</v>
-      </c>
-      <c r="G4" t="s">
-        <v>43</v>
       </c>
       <c r="H4" t="s">
         <v>31</v>
@@ -790,61 +789,58 @@
       <c r="I4" t="s">
         <v>32</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4"/>
+      <c r="K4" t="s">
         <v>33</v>
       </c>
-      <c r="K4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" t="n">
-        <v>160</v>
-      </c>
-      <c r="M4"/>
+      <c r="L4"/>
+      <c r="M4" t="n">
+        <v>180</v>
+      </c>
       <c r="N4"/>
       <c r="O4"/>
-      <c r="P4" t="n">
-        <v>80</v>
-      </c>
-      <c r="Q4"/>
+      <c r="P4"/>
+      <c r="Q4" t="n">
+        <v>30</v>
+      </c>
       <c r="R4"/>
       <c r="S4"/>
-      <c r="T4" t="n">
-        <v>200</v>
-      </c>
-      <c r="U4"/>
+      <c r="T4"/>
+      <c r="U4" t="n">
+        <v>150</v>
+      </c>
       <c r="V4"/>
-      <c r="W4" t="n">
-        <v>440</v>
-      </c>
+      <c r="W4"/>
       <c r="X4" t="n">
-        <v>2.14634146341463</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z4"/>
+        <v>360</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" t="n">
         <v>7094</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" t="n">
+        <v>36201</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5" t="s">
         <v>45</v>
-      </c>
-      <c r="E5" t="n">
-        <v>35081</v>
-      </c>
-      <c r="F5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" t="s">
-        <v>47</v>
       </c>
       <c r="H5" t="s">
         <v>31</v>
@@ -852,61 +848,60 @@
       <c r="I5" t="s">
         <v>32</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5"/>
+      <c r="K5" t="s">
         <v>33</v>
       </c>
-      <c r="K5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" t="n">
-        <v>160</v>
-      </c>
+      <c r="L5"/>
       <c r="M5"/>
       <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5" t="n">
-        <v>100</v>
-      </c>
+      <c r="O5" t="n">
+        <v>150</v>
+      </c>
+      <c r="P5"/>
       <c r="Q5"/>
       <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5" t="n">
-        <v>180</v>
-      </c>
+      <c r="S5" t="n">
+        <v>35</v>
+      </c>
+      <c r="T5"/>
       <c r="U5"/>
       <c r="V5"/>
       <c r="W5" t="n">
-        <v>440</v>
+        <v>25</v>
       </c>
       <c r="X5" t="n">
-        <v>2.27979274611399</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z5"/>
+        <v>210</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>2.05882352941176</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B6" t="n">
-        <v>7092</v>
+        <v>7094</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="n">
+        <v>67011</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" t="s">
         <v>49</v>
-      </c>
-      <c r="E6" t="n">
-        <v>35091</v>
-      </c>
-      <c r="F6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" t="s">
-        <v>50</v>
       </c>
       <c r="H6" t="s">
         <v>31</v>
@@ -914,61 +909,60 @@
       <c r="I6" t="s">
         <v>32</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6"/>
+      <c r="K6" t="s">
         <v>33</v>
       </c>
-      <c r="K6" t="s">
-        <v>39</v>
-      </c>
-      <c r="L6" t="n">
-        <v>167</v>
-      </c>
-      <c r="M6"/>
+      <c r="L6"/>
+      <c r="M6" t="n">
+        <v>132</v>
+      </c>
       <c r="N6"/>
       <c r="O6"/>
-      <c r="P6" t="n">
-        <v>105</v>
-      </c>
-      <c r="Q6"/>
+      <c r="P6"/>
+      <c r="Q6" t="n">
+        <v>21</v>
+      </c>
       <c r="R6"/>
       <c r="S6"/>
-      <c r="T6" t="n">
-        <v>158</v>
-      </c>
-      <c r="U6"/>
+      <c r="T6"/>
+      <c r="U6" t="n">
+        <v>110</v>
+      </c>
       <c r="V6"/>
-      <c r="W6" t="n">
-        <v>430</v>
-      </c>
+      <c r="W6"/>
       <c r="X6" t="n">
-        <v>2.32432432432432</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z6"/>
+        <v>263</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>2.00763358778626</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B7" t="n">
-        <v>7092</v>
+        <v>7094</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" t="n">
+        <v>67021</v>
+      </c>
+      <c r="F7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" t="s">
         <v>52</v>
-      </c>
-      <c r="E7" t="n">
-        <v>37061</v>
-      </c>
-      <c r="F7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" t="s">
-        <v>54</v>
       </c>
       <c r="H7" t="s">
         <v>31</v>
@@ -976,101 +970,207 @@
       <c r="I7" t="s">
         <v>32</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7"/>
+      <c r="K7" t="s">
         <v>33</v>
       </c>
-      <c r="K7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" t="n">
-        <v>100</v>
-      </c>
-      <c r="M7"/>
+      <c r="L7"/>
+      <c r="M7" t="n">
+        <v>220</v>
+      </c>
       <c r="N7"/>
       <c r="O7"/>
-      <c r="P7" t="n">
-        <v>55</v>
-      </c>
-      <c r="Q7"/>
+      <c r="P7"/>
+      <c r="Q7" t="n">
+        <v>70</v>
+      </c>
       <c r="R7"/>
       <c r="S7"/>
-      <c r="T7" t="n">
-        <v>72</v>
-      </c>
-      <c r="U7"/>
+      <c r="T7"/>
+      <c r="U7" t="n">
+        <v>170</v>
+      </c>
       <c r="V7"/>
-      <c r="W7" t="n">
-        <v>227</v>
-      </c>
+      <c r="W7"/>
       <c r="X7" t="n">
-        <v>2.22549019607843</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z7"/>
+        <v>460</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1.92468619246862</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B8" t="n">
-        <v>7092</v>
+        <v>7081</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E8" t="n">
-        <v>37221</v>
-      </c>
-      <c r="F8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" t="s">
-        <v>58</v>
-      </c>
+        <v>5054</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8"/>
       <c r="H8" t="s">
         <v>31</v>
       </c>
       <c r="I8" t="s">
         <v>32</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8"/>
+      <c r="K8" t="s">
         <v>33</v>
       </c>
-      <c r="K8" t="s">
-        <v>39</v>
-      </c>
-      <c r="L8" t="n">
-        <v>130</v>
-      </c>
+      <c r="L8"/>
       <c r="M8"/>
       <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8" t="n">
+      <c r="O8" t="n">
         <v>65</v>
       </c>
+      <c r="P8"/>
       <c r="Q8"/>
       <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8" t="n">
-        <v>155</v>
-      </c>
+      <c r="S8" t="n">
+        <v>18</v>
+      </c>
+      <c r="T8"/>
       <c r="U8"/>
       <c r="V8"/>
       <c r="W8" t="n">
-        <v>350</v>
+        <v>75</v>
       </c>
       <c r="X8" t="n">
-        <v>2.03488372093023</v>
-      </c>
-      <c r="Y8" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7094</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" t="n">
+        <v>68121</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9"/>
+      <c r="K9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9" t="n">
+        <v>75</v>
+      </c>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9" t="n">
+        <v>18</v>
+      </c>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9" t="n">
+        <v>100</v>
+      </c>
+      <c r="W9"/>
+      <c r="X9" t="n">
+        <v>193</v>
+      </c>
+      <c r="Y9"/>
+      <c r="Z9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="n">
+        <v>7081</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
         <v>59</v>
       </c>
-      <c r="Z8"/>
+      <c r="E10" t="n">
+        <v>5059</v>
+      </c>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10"/>
+      <c r="K10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10" t="n">
+        <v>110</v>
+      </c>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10" t="n">
+        <v>30</v>
+      </c>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10" t="n">
+        <v>60</v>
+      </c>
+      <c r="X10" t="n">
+        <v>200</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
